--- a/firmware/tramesLinky/datas.xlsx
+++ b/firmware/tramesLinky/datas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08-LocalRepos\TICMeter\firmware\tramesLinky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232BA369-1E25-4A2B-B682-0D68637F7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3587F9B-FE61-49AE-A47C-1DE9B28ABBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DF9CA697-8C6D-478C-8E2E-59A27A25127B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="250">
   <si>
     <t>label 1 (Hist)</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>SMAXSN-1</t>
+  </si>
+  <si>
+    <t>N° jours en cours fournisseur</t>
   </si>
 </sst>
 </file>
@@ -885,8 +888,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -896,14 +899,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -950,7 +946,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}" name="Tableau1" displayName="Tableau1" ref="A1:M90" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}" name="Tableau1" displayName="Tableau1" ref="A1:M90" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:M90" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}"/>
   <tableColumns count="13">
     <tableColumn id="6" xr3:uid="{7BF275E3-5B88-462C-99C2-AE692F3D047B}" name="NOM"/>
@@ -1272,7 +1268,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1289,7 @@
     <col min="16" max="16" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" ht="66.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>209</v>
       </c>
@@ -3408,7 +3404,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="D84" t="s">
         <v>210</v>

--- a/firmware/tramesLinky/datas.xlsx
+++ b/firmware/tramesLinky/datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08-LocalRepos\TICMeter\firmware\tramesLinky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3587F9B-FE61-49AE-A47C-1DE9B28ABBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F99A21-5114-4D8B-98B3-7AF7C9F822B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DF9CA697-8C6D-478C-8E2E-59A27A25127B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF9CA697-8C6D-478C-8E2E-59A27A25127B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
@@ -947,7 +947,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}" name="Tableau1" displayName="Tableau1" ref="A1:M90" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:M90" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}"/>
+  <autoFilter ref="A1:M90" xr:uid="{4D27E242-3ECB-4B3A-AA2C-237703A5A098}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M90">
+    <sortCondition ref="F1:F90"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="6" xr3:uid="{7BF275E3-5B88-462C-99C2-AE692F3D047B}" name="NOM"/>
     <tableColumn id="1" xr3:uid="{9B9713AA-CA38-402E-A54A-0E145AC45087}" name="MQTT"/>
@@ -1266,9 +1275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9762C519-9009-406E-A69C-3E34C8112902}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>210</v>
@@ -1373,25 +1382,25 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>227</v>
@@ -1399,7 +1408,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>210</v>
@@ -1408,33 +1417,23 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" t="s">
-        <v>188</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="P4" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
         <v>210</v>
@@ -1443,24 +1442,20 @@
         <v>210</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>210</v>
@@ -1469,24 +1464,20 @@
         <v>210</v>
       </c>
       <c r="F6">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
         <v>210</v>
@@ -1495,24 +1486,20 @@
         <v>210</v>
       </c>
       <c r="F7">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>210</v>
@@ -1521,24 +1508,30 @@
         <v>210</v>
       </c>
       <c r="F8">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>210</v>
@@ -1547,26 +1540,34 @@
         <v>210</v>
       </c>
       <c r="F9">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="M9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>231</v>
+      </c>
       <c r="D10" t="s">
         <v>210</v>
       </c>
@@ -1574,25 +1575,30 @@
         <v>210</v>
       </c>
       <c r="F10">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" t="s">
+        <v>246</v>
+      </c>
       <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="L10" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
         <v>210</v>
@@ -1601,24 +1607,24 @@
         <v>210</v>
       </c>
       <c r="F11">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
         <v>210</v>
@@ -1627,24 +1633,24 @@
         <v>210</v>
       </c>
       <c r="F12">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>210</v>
@@ -1653,24 +1659,24 @@
         <v>210</v>
       </c>
       <c r="F13">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
         <v>210</v>
@@ -1679,24 +1685,24 @@
         <v>210</v>
       </c>
       <c r="F14">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
         <v>210</v>
@@ -1705,22 +1711,22 @@
         <v>210</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1745,8 +1751,9 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s">
         <v>210</v>
       </c>
@@ -1754,33 +1761,25 @@
         <v>210</v>
       </c>
       <c r="F17">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" t="s">
-        <v>156</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" t="s">
-        <v>156</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
         <v>210</v>
@@ -1789,28 +1788,22 @@
         <v>210</v>
       </c>
       <c r="F18">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" t="s">
-        <v>246</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" t="s">
-        <v>246</v>
-      </c>
-      <c r="L18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>242</v>
       </c>
@@ -1839,7 +1832,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
         <v>210</v>
@@ -1848,30 +1841,24 @@
         <v>210</v>
       </c>
       <c r="F20">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" t="s">
-        <v>69</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
         <v>210</v>
@@ -1880,30 +1867,24 @@
         <v>210</v>
       </c>
       <c r="F21">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" t="s">
-        <v>69</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" t="s">
-        <v>69</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
         <v>210</v>
@@ -1912,30 +1893,24 @@
         <v>210</v>
       </c>
       <c r="F22">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
         <v>210</v>
@@ -1944,28 +1919,22 @@
         <v>210</v>
       </c>
       <c r="F23">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" t="s">
-        <v>71</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +1952,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +1970,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2019,7 +1988,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2037,7 +2006,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2024,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2073,7 +2042,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2091,7 +2060,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2080,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>210</v>
@@ -2120,30 +2089,28 @@
         <v>210</v>
       </c>
       <c r="F32">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="H32" t="s">
-        <v>169</v>
-      </c>
+      <c r="H32" s="5"/>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>210</v>
@@ -2152,28 +2119,28 @@
         <v>210</v>
       </c>
       <c r="F33">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -2191,7 +2158,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -2215,7 +2182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>237</v>
       </c>
@@ -2233,7 +2200,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -2251,7 +2218,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -2277,7 +2244,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -2301,7 +2268,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2325,7 +2292,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2349,7 +2316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2373,7 +2340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2397,7 +2364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2423,7 +2390,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
         <v>210</v>
@@ -2432,26 +2399,26 @@
         <v>210</v>
       </c>
       <c r="F45">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2475,7 +2442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -2499,7 +2466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2523,7 +2490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2516,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
         <v>210</v>
@@ -2558,28 +2525,28 @@
         <v>210</v>
       </c>
       <c r="F50">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2588,28 +2555,28 @@
         <v>210</v>
       </c>
       <c r="F51">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
         <v>210</v>
@@ -2618,28 +2585,30 @@
         <v>210</v>
       </c>
       <c r="F52">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" t="s">
+        <v>159</v>
+      </c>
       <c r="I52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>210</v>
@@ -2648,26 +2617,28 @@
         <v>210</v>
       </c>
       <c r="F53">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
       <c r="I53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -2684,7 +2655,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>210</v>
@@ -2693,28 +2664,30 @@
         <v>210</v>
       </c>
       <c r="F55">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L55" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
         <v>210</v>
@@ -2723,28 +2696,30 @@
         <v>210</v>
       </c>
       <c r="F56">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="5"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
         <v>210</v>
@@ -2753,26 +2728,26 @@
         <v>210</v>
       </c>
       <c r="F57">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -2796,7 +2771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -2820,7 +2795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -2844,7 +2819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -2868,7 +2843,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -2892,7 +2867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2916,7 +2891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -2942,7 +2917,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
         <v>210</v>
@@ -2951,26 +2926,26 @@
         <v>210</v>
       </c>
       <c r="F65">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="L65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -2994,7 +2969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -3018,7 +2993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -3042,7 +3017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -3066,7 +3041,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -3090,7 +3065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -3114,7 +3089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -3138,7 +3113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -3162,7 +3137,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -3186,7 +3161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -3210,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -3234,7 +3209,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -3258,7 +3233,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>141</v>
       </c>
@@ -3282,7 +3257,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -3306,7 +3281,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -3330,7 +3305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -3354,7 +3329,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -3378,7 +3353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -3402,7 +3377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -3426,7 +3401,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -3450,7 +3425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -3476,7 +3451,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
         <v>210</v>
@@ -3485,20 +3460,28 @@
         <v>210</v>
       </c>
       <c r="F87">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="H87" s="5"/>
+      <c r="I87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" t="s">
+        <v>75</v>
+      </c>
+      <c r="K87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L87" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
         <v>210</v>
@@ -3507,20 +3490,28 @@
         <v>210</v>
       </c>
       <c r="F88">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="H88" s="5"/>
+      <c r="I88" t="s">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s">
+        <v>76</v>
+      </c>
+      <c r="K88" t="s">
+        <v>76</v>
+      </c>
+      <c r="L88" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
         <v>210</v>
@@ -3529,20 +3520,28 @@
         <v>210</v>
       </c>
       <c r="F89">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>226</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+      <c r="K89" t="s">
+        <v>134</v>
+      </c>
+      <c r="L89" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
         <v>210</v>
@@ -3551,16 +3550,26 @@
         <v>210</v>
       </c>
       <c r="F90">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="H90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I90" t="s">
+        <v>177</v>
+      </c>
+      <c r="J90" t="s">
+        <v>177</v>
+      </c>
+      <c r="K90" t="s">
+        <v>177</v>
+      </c>
+      <c r="L90" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/firmware/tramesLinky/datas.xlsx
+++ b/firmware/tramesLinky/datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08-LocalRepos\TICMeter\firmware\tramesLinky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F99A21-5114-4D8B-98B3-7AF7C9F822B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEB949-914D-4A26-976A-E9CB8D8AD344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF9CA697-8C6D-478C-8E2E-59A27A25127B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DF9CA697-8C6D-478C-8E2E-59A27A25127B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="250">
   <si>
     <t>label 1 (Hist)</t>
   </si>
@@ -1275,9 +1275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9762C519-9009-406E-A69C-3E34C8112902}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1618,9 @@
       <c r="I11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
